--- a/doc/977 - URBAN TRENDS COLLECTION - VENDOR QUOTATION SHEET  rev.3.xlsx
+++ b/doc/977 - URBAN TRENDS COLLECTION - VENDOR QUOTATION SHEET  rev.3.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\giants3\HomeDecoration\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="19440" windowHeight="13620"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'QUOTE 550'!$10:$10</definedName>
   </definedNames>
-  <calcPr calcId="114210" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -292,12 +297,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,6 +1052,57 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
@@ -1074,9 +1130,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1096,54 +1149,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,74 +1158,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1368,14 +1313,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1410,7 +1355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1442,9 +1387,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1476,6 +1422,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1651,7 +1598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1662,231 +1609,231 @@
       <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="14" customWidth="1"/>
+    <col min="1" max="1" width="0.33203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="14" customWidth="1"/>
     <col min="4" max="4" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.75" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="14" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="14" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="17" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="14" customWidth="1"/>
-    <col min="10" max="10" width="6.75" style="21" customWidth="1"/>
-    <col min="11" max="11" width="6.75" style="22" customWidth="1"/>
-    <col min="12" max="12" width="6.75" style="23" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="24" customWidth="1"/>
-    <col min="14" max="15" width="6.75" style="23" customWidth="1"/>
-    <col min="16" max="16" width="6.75" style="42" customWidth="1"/>
-    <col min="17" max="17" width="6.75" style="24" customWidth="1"/>
-    <col min="18" max="18" width="6.75" style="40" customWidth="1"/>
-    <col min="19" max="19" width="7.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.75" style="37" customWidth="1"/>
-    <col min="22" max="23" width="13.25" style="34" customWidth="1"/>
-    <col min="24" max="24" width="13.25" style="33" customWidth="1"/>
-    <col min="25" max="16384" width="9.125" style="32"/>
+    <col min="5" max="5" width="40.77734375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="6.77734375" style="23" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" style="24" customWidth="1"/>
+    <col min="14" max="15" width="6.77734375" style="23" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" style="42" customWidth="1"/>
+    <col min="17" max="17" width="6.77734375" style="24" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" style="40" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" style="37" customWidth="1"/>
+    <col min="22" max="23" width="13.21875" style="34" customWidth="1"/>
+    <col min="24" max="24" width="13.21875" style="33" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="76" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-    </row>
-    <row r="2" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+    </row>
+    <row r="2" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-    </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+    </row>
+    <row r="3" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+    </row>
+    <row r="4" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="74">
         <v>18850770109</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-    </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+    </row>
+    <row r="5" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="75"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-    </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+    </row>
+    <row r="6" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+    </row>
+    <row r="7" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="88"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1901,53 +1848,53 @@
       <c r="U7" s="35"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="67" t="s">
+    <row r="8" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="26"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="80" t="s">
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81" t="s">
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="61" t="s">
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="62"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="89" t="e">
-        <f ca="1">IFERROR(SUM(U$11:U$32),"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V8" s="90" t="e">
-        <f ca="1">IFERROR(SUM(V$11:V$32),"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W8" s="90" t="e">
-        <f ca="1">IFERROR(SUM(W$11:W$32),"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X8" s="91" t="e">
-        <f ca="1">IFERROR(SUM(X$11:X$32),"")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" ht="12.6" customHeight="1">
+      <c r="S8" s="79"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="75">
+        <f>IFERROR(SUM(U$11:U$32),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="76">
+        <f>IFERROR(SUM(V$11:V$32),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="76">
+        <f>IFERROR(SUM(W$11:W$32),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="77">
+        <f>IFERROR(SUM(X$11:X$32),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="6" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1955,25 +1902,25 @@
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="91"/>
-    </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="22.5">
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="77"/>
+    </row>
+    <row r="10" spans="1:24" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="10" t="s">
         <v>1</v>
@@ -2045,7 +1992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="50" customFormat="1" ht="114.95" customHeight="1">
+    <row r="11" spans="1:24" s="50" customFormat="1" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
       <c r="C11" s="45" t="s">
@@ -2096,24 +2043,24 @@
       <c r="T11" s="49">
         <v>7.5</v>
       </c>
-      <c r="U11" s="59" t="e">
-        <f ca="1">IFERROR(S11/Q11,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V11" s="60" t="e">
-        <f ca="1">IFERROR(O11*U11,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W11" s="60" t="e">
-        <f ca="1">IFERROR(N11*U11,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X11" s="49" t="e">
-        <f ca="1">IFERROR(T11*S11,"")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="114.95" customHeight="1">
+      <c r="U11" s="59">
+        <f>IFERROR(S11/Q11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="60">
+        <f>IFERROR(O11*U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="60">
+        <f>IFERROR(N11*U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="49">
+        <f>IFERROR(T11*S11,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G12" s="16"/>
       <c r="N12" s="25"/>
       <c r="S12" s="25"/>
@@ -2134,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="114.95" customHeight="1">
+    <row r="13" spans="1:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G13" s="16"/>
       <c r="N13" s="25"/>
       <c r="S13" s="25"/>
@@ -2155,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="114.95" customHeight="1">
+    <row r="14" spans="1:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G14" s="16"/>
       <c r="N14" s="25"/>
       <c r="S14" s="25"/>
@@ -2176,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="114.95" customHeight="1">
+    <row r="15" spans="1:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G15" s="16"/>
       <c r="N15" s="25"/>
       <c r="S15" s="25"/>
@@ -2197,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="114.95" customHeight="1">
+    <row r="16" spans="1:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" s="16"/>
       <c r="N16" s="25"/>
       <c r="S16" s="25"/>
@@ -2218,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:24" ht="114.95" customHeight="1">
+    <row r="17" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G17" s="16"/>
       <c r="N17" s="25"/>
       <c r="S17" s="25"/>
@@ -2239,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:24" ht="114.95" customHeight="1">
+    <row r="18" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G18" s="16"/>
       <c r="N18" s="25"/>
       <c r="S18" s="25"/>
@@ -2260,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:24" ht="114.95" customHeight="1">
+    <row r="19" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="16"/>
       <c r="N19" s="25"/>
       <c r="S19" s="25"/>
@@ -2281,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:24" ht="114.95" customHeight="1">
+    <row r="20" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G20" s="16"/>
       <c r="N20" s="25"/>
       <c r="S20" s="25"/>
@@ -2302,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:24" ht="114.95" customHeight="1">
+    <row r="21" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G21" s="16"/>
       <c r="N21" s="25"/>
       <c r="S21" s="25"/>
@@ -2323,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:24" ht="114.95" customHeight="1">
+    <row r="22" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G22" s="16"/>
       <c r="N22" s="25"/>
       <c r="S22" s="25"/>
@@ -2344,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:24" ht="114.95" customHeight="1">
+    <row r="23" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="16"/>
       <c r="N23" s="25"/>
       <c r="S23" s="25"/>
@@ -2365,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:24" ht="114.95" customHeight="1">
+    <row r="24" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G24" s="16"/>
       <c r="N24" s="25"/>
       <c r="S24" s="25"/>
@@ -2386,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:24" ht="114.95" customHeight="1">
+    <row r="25" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="16"/>
       <c r="N25" s="25"/>
       <c r="S25" s="25"/>
@@ -2407,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:24" ht="114.95" customHeight="1">
+    <row r="26" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="16"/>
       <c r="N26" s="25"/>
       <c r="S26" s="25"/>
@@ -2428,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:24" ht="114.95" customHeight="1">
+    <row r="27" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="16"/>
       <c r="N27" s="25"/>
       <c r="S27" s="25"/>
@@ -2449,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:24" ht="114.95" customHeight="1">
+    <row r="28" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="16"/>
       <c r="N28" s="25"/>
       <c r="S28" s="25"/>
@@ -2470,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="7:24" ht="114.95" customHeight="1">
+    <row r="29" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G29" s="16"/>
       <c r="N29" s="25"/>
       <c r="S29" s="25"/>
@@ -2491,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="7:24" ht="114.95" customHeight="1">
+    <row r="30" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G30" s="16"/>
       <c r="N30" s="25"/>
       <c r="S30" s="25"/>
@@ -2512,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="7:24" ht="114.95" customHeight="1">
+    <row r="31" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G31" s="16"/>
       <c r="N31" s="25"/>
       <c r="S31" s="25"/>
@@ -2533,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="7:24" ht="114.95" customHeight="1">
+    <row r="32" spans="7:24" ht="114.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G32" s="16"/>
       <c r="N32" s="25"/>
       <c r="S32" s="25"/>
@@ -2558,6 +2505,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="20">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="H1:X6"/>
     <mergeCell ref="H8:J9"/>
     <mergeCell ref="K8:Q9"/>
@@ -2569,25 +2525,8 @@
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="W8:W9"/>
     <mergeCell ref="R8:T9"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry!" sqref="R12:R32">
-      <formula1>UOS!$A$1:$A$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Entry!" sqref="R11">
-      <formula1>UOS!$A$1:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1"/>
   </hyperlinks>
@@ -2599,11 +2538,29 @@
     <oddFooter>&amp;L&amp;4&amp;F&amp;C&amp;4EDP Department&amp;R&amp;8&amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry!">
+          <x14:formula1>
+            <xm:f>UOS!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>R12:R32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Entry!">
+          <x14:formula1>
+            <xm:f>UOS!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>R11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -2611,19 +2568,19 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
